--- a/diff.xlsx
+++ b/diff.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="beans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>change</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>change 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -475,11 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2786105956</v>
+        <v>-0.0548602856</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -487,17 +481,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Solidity</t>
+          <t>Minor_Axis_Length</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3217266575</v>
+        <v>-0.107694638</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.043116062</v>
+        <v>-0.0528343524</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -505,20 +498,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ShapeFactor4</t>
+          <t>Eccentricity</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4881050531</v>
+        <v>-0.314256598</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1663783956</v>
+        <v>-0.2065619601</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1232623336</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.1232623336</v>
+        <v>-0.1537276076</v>
       </c>
     </row>
     <row r="5">
@@ -527,20 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>roundness</t>
+          <t>Area</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.1077012746</v>
+        <v>-0.5525615473</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6195962214</v>
+        <v>-0.2383049493</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4532178259</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.4532178259</v>
+        <v>-0.0317429893</v>
       </c>
     </row>
     <row r="6">
@@ -549,20 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eccentricity</t>
+          <t>Convex_Area</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.1304427357</v>
+        <v>-0.5564634099</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0227414611</v>
+        <v>-0.0039018626</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5968547603</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4031452397</v>
+        <v>0.2344030867</v>
       </c>
     </row>
     <row r="7">
@@ -571,20 +555,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AspectRation</t>
+          <t>Perimeter</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.1502751853</v>
+        <v>-0.6685288498</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0198324496</v>
+        <v>-0.1120654399</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0029090115</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9970909885</v>
+        <v>-0.1081635773</v>
       </c>
     </row>
     <row r="8">
@@ -593,218 +574,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ShapeFactor3</t>
+          <t>Major_Axis_Length</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.165965913</v>
+        <v>-0.7088347074</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0156907277</v>
+        <v>-0.0403058575</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004141722</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.995858278</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Compactness</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.1692329894</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.0032670764</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0124236512</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9875763488</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MinorAxisLength</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.2594592356</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.0902262462</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.08695916970000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.0869591697</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ShapeFactor1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-1.2919866293</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.0325273938</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0576988524</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9423011476000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ShapeFactor2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-1.3298588039</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0378721745</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.0053447807</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.0053447807</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.342917716</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.0130589122</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0248132623</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9751867377</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ConvexArea</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-1.3600729853</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.0171552693</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.0040963571</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.0040963571</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MajorAxisLength</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-1.3764081065</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.0163351212</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0008201481</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9991798519</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EquivDiameter</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-1.3969910602</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.0205829537</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.0042478325</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.0042478325</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Perimeter</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-1.4501730967</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.0531820365</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.0325990829</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.0325990829</v>
+        <v>0.07175958239999999</v>
       </c>
     </row>
   </sheetData>

--- a/diff.xlsx
+++ b/diff.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
